--- a/заказы/статистика филиалы/2024/12,24/12,12,24 ПОКОМ ЗПФ филиалы/дв 12,12,24 днрсч пок зпф.xlsx
+++ b/заказы/статистика филиалы/2024/12,24/12,12,24 ПОКОМ ЗПФ филиалы/дв 12,12,24 днрсч пок зпф.xlsx
@@ -5,10 +5,10 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Uaer4\Desktop\12,12,24 ПОКОМ ЗПФ филиалы\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\WORK\ПОКОМ_Останкино\ПОКОМ\pokom_data\заказы\статистика филиалы\2024\12,24\12,12,24 ПОКОМ ЗПФ филиалы\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8E818EB3-8F93-4F40-A025-2FBCD497B0A2}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CAA28044-AF1D-455D-B389-5D7F76176F3C}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -7204,7 +7204,7 @@
       <pane xSplit="2" ySplit="5" topLeftCell="C6" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A6" sqref="A6"/>
-      <selection pane="bottomRight" activeCell="S9" sqref="S9"/>
+      <selection pane="bottomRight" activeCell="AE4" sqref="AE4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
